--- a/Maga/1course/1sem/Логика и методология решения научных задач/1лаб/1лаб.xlsx
+++ b/Maga/1course/1sem/Логика и методология решения научных задач/1лаб/1лаб.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladislave\Desktop\Maga\1course\1sem\Логика и методология решения научных задач\1лаб\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladislave\Documents\GitHub\University\Maga\1course\1sem\Логика и методология решения научных задач\1лаб\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -304,34 +304,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,22 +346,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -370,7 +370,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,34 +719,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,22 +761,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -785,7 +785,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,34 +1131,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,28 +1173,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>30</c:v>
@@ -1455,16 +1455,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>17123</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15411</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488023</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314644</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44521</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582201</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1491,16 +1491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1416979</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83905</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47091</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>362164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295382</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130139</xdr:rowOff>
+      <xdr:colOff>370297</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1521,16 +1521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>235448</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19694</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>845475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>237587</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>65927</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>130565</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>65928</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1818,13 +1818,13 @@
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D1" s="3">
         <f>MAX(B2:B31)</f>
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1854,17 +1854,17 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3">
         <f>MIN(B2:B31)</f>
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3">
         <f t="array" ref="F2:F11">FREQUENCY(B2:B31,E2:E11)</f>
@@ -1878,69 +1878,69 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <f>G2+F3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G11" si="0">G3+F4</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
@@ -1950,87 +1950,87 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F7" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3">
         <v>3</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,7 +2312,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -2336,14 +2336,14 @@
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2">
         <f>AVERAGE(A1:A30)</f>
-        <v>49.5</v>
+        <v>79.5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2405,14 +2405,14 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3">
         <f>MEDIAN(A1:A30)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2427,14 +2427,14 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3">
         <f>MODE(A1:A30)</f>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -2493,14 +2493,14 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3">
         <f>PERCENTILE(A1:A30,0.6)</f>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2515,14 +2515,14 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3">
         <f>PERCENTILE(A1:A30,0.9)</f>
-        <v>54.1</v>
+        <v>84.1</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
